--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/61.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/61.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1700699308780642</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.558861203022402</v>
+        <v>-1.551544375137036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01188474551554107</v>
+        <v>0.015391660117799</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1333956453613911</v>
+        <v>-0.1139423430412359</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1586809492054825</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.561864431505844</v>
+        <v>-1.548030377448732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0222559575057913</v>
+        <v>0.02744235051047707</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09391924579916987</v>
+        <v>-0.0704285844328784</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1535945202255563</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.639009469669472</v>
+        <v>-1.632573305482474</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03783222244986246</v>
+        <v>-0.03521305463201811</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1008213196460734</v>
+        <v>-0.07737000875781443</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1557389649957227</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.781178811753154</v>
+        <v>-1.783000738886059</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09403257517590351</v>
+        <v>-0.1018963747059217</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1061997429835578</v>
+        <v>-0.08128459431248924</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1601685392186026</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.839896808063715</v>
+        <v>-1.863488993663331</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.124480401058344</v>
+        <v>-0.1400663383974634</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1049342316100321</v>
+        <v>-0.08117126493575559</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1600576379879761</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.661905938817473</v>
+        <v>-1.6844238563668</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1344502381726626</v>
+        <v>-0.168357758083722</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1048382164436327</v>
+        <v>-0.08783566189534271</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1516381591381979</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.329410139633916</v>
+        <v>-1.329955537259446</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1450953294900191</v>
+        <v>-0.1800133696769536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06028560521521677</v>
+        <v>-0.03648643610115037</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1345152552182619</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8126462829483686</v>
+        <v>-0.7856597251136683</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08782306974237231</v>
+        <v>-0.1331721346461664</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06971555377092918</v>
+        <v>-0.05364324452332787</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1102817020852203</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2705855779548378</v>
+        <v>-0.2216131210338095</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0981328949868918</v>
+        <v>-0.156354288264683</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00815589421717974</v>
+        <v>0.03306946886912702</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08006719941206218</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3100244293384682</v>
+        <v>0.3808411236249075</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1220186351526297</v>
+        <v>-0.1735221148207096</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0817601763674425</v>
+        <v>0.1063573731760084</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04352439573714044</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9700358312057874</v>
+        <v>1.060072872982429</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2070046495690178</v>
+        <v>-0.2814085334329013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1464555102911434</v>
+        <v>0.161806918781189</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.001035313751720071</v>
       </c>
       <c r="E13" t="n">
-        <v>1.660750050053198</v>
+        <v>1.775787237533459</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3685367878733796</v>
+        <v>-0.4499104284063825</v>
       </c>
       <c r="G13" t="n">
-        <v>0.252179226630668</v>
+        <v>0.2716482691420362</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0482744295926447</v>
       </c>
       <c r="E14" t="n">
-        <v>2.326848183862587</v>
+        <v>2.451066624877395</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6097992907481063</v>
+        <v>-0.6963892306490999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3618474348881721</v>
+        <v>0.3799502288022513</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1044571974646391</v>
       </c>
       <c r="E15" t="n">
-        <v>3.034003032431983</v>
+        <v>3.17032253245135</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9074250573279289</v>
+        <v>-0.9992777301609912</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5057049124794485</v>
+        <v>0.527007687267132</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1677603325938063</v>
       </c>
       <c r="E16" t="n">
-        <v>3.712247871800449</v>
+        <v>3.854872892419747</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.143716020808027</v>
+        <v>-1.235516751010087</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6668230837549082</v>
+        <v>0.6893047988644458</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2373516667599835</v>
       </c>
       <c r="E17" t="n">
-        <v>4.376923092324183</v>
+        <v>4.53325939350913</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.438468415481916</v>
+        <v>-1.544100838712405</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8380102553493284</v>
+        <v>0.8613309226505194</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3132323442725094</v>
       </c>
       <c r="E18" t="n">
-        <v>5.046728041164235</v>
+        <v>5.225747531906247</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.64975293718191</v>
+        <v>-1.750796307664247</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9956797507300182</v>
+        <v>1.019562342857514</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3934943302154252</v>
       </c>
       <c r="E19" t="n">
-        <v>5.52831178347915</v>
+        <v>5.703953429186852</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.882059271256436</v>
+        <v>-1.993476214757705</v>
       </c>
       <c r="G19" t="n">
-        <v>1.161593958268081</v>
+        <v>1.18406465524377</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4738165194721786</v>
       </c>
       <c r="E20" t="n">
-        <v>5.961976087665188</v>
+        <v>6.152119171537432</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.032365505187681</v>
+        <v>-2.141128652450437</v>
       </c>
       <c r="G20" t="n">
-        <v>1.289007658099129</v>
+        <v>1.310847173407176</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5505721243325704</v>
       </c>
       <c r="E21" t="n">
-        <v>6.25258251597357</v>
+        <v>6.433914240804773</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.230176423209342</v>
+        <v>-2.333608367708253</v>
       </c>
       <c r="G21" t="n">
-        <v>1.404336039116831</v>
+        <v>1.422531700159066</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6209766053089494</v>
       </c>
       <c r="E22" t="n">
-        <v>6.581114935009692</v>
+        <v>6.768564872165391</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.32878872115883</v>
+        <v>-2.422104444765141</v>
       </c>
       <c r="G22" t="n">
-        <v>1.499192727442895</v>
+        <v>1.513269180444687</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6825170424881334</v>
       </c>
       <c r="E23" t="n">
-        <v>6.704895798708779</v>
+        <v>6.887422204053049</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.418023800193169</v>
+        <v>-2.505676990010601</v>
       </c>
       <c r="G23" t="n">
-        <v>1.599900044842835</v>
+        <v>1.611168447732226</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7339030356213028</v>
       </c>
       <c r="E24" t="n">
-        <v>6.837105534802429</v>
+        <v>7.010066625946556</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.470841585827535</v>
+        <v>-2.549787301865932</v>
       </c>
       <c r="G24" t="n">
-        <v>1.603756391690021</v>
+        <v>1.611968049445847</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7748027271636109</v>
       </c>
       <c r="E25" t="n">
-        <v>6.916023705506204</v>
+        <v>7.088007330776002</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.479941777377335</v>
+        <v>-2.560202586391579</v>
       </c>
       <c r="G25" t="n">
-        <v>1.64890555616541</v>
+        <v>1.654716834761252</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8044758441251806</v>
       </c>
       <c r="E26" t="n">
-        <v>6.905739064567625</v>
+        <v>7.061237987580041</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.505584909892005</v>
+        <v>-2.594110893312199</v>
       </c>
       <c r="G26" t="n">
-        <v>1.671358938930765</v>
+        <v>1.662917474383229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.822546580660908</v>
       </c>
       <c r="E27" t="n">
-        <v>6.837083498534732</v>
+        <v>6.979982398481136</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.40741176327736</v>
+        <v>-2.478547983445424</v>
       </c>
       <c r="G27" t="n">
-        <v>1.632534183284762</v>
+        <v>1.626851974256866</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8296380492448113</v>
       </c>
       <c r="E28" t="n">
-        <v>6.707930507574646</v>
+        <v>6.831179352810732</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.335426359793355</v>
+        <v>-2.387583057396775</v>
       </c>
       <c r="G28" t="n">
-        <v>1.574984896171766</v>
+        <v>1.555559926195794</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8268408482286619</v>
       </c>
       <c r="E29" t="n">
-        <v>6.54711927002784</v>
+        <v>6.655636870307673</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.252954053913684</v>
+        <v>-2.304071111887485</v>
       </c>
       <c r="G29" t="n">
-        <v>1.522788848090314</v>
+        <v>1.497801294539665</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8150651996554984</v>
       </c>
       <c r="E30" t="n">
-        <v>6.360014043059706</v>
+        <v>6.448030044284597</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.205713805035647</v>
+        <v>-2.249714722562048</v>
       </c>
       <c r="G30" t="n">
-        <v>1.454777055878032</v>
+        <v>1.431040847528818</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7964870662985803</v>
       </c>
       <c r="E31" t="n">
-        <v>6.076098770035973</v>
+        <v>6.144436384206363</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.014951344639171</v>
+        <v>-2.030730886330211</v>
       </c>
       <c r="G31" t="n">
-        <v>1.375161594703522</v>
+        <v>1.350137838713084</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7726556234175481</v>
       </c>
       <c r="E32" t="n">
-        <v>5.813028232235625</v>
+        <v>5.863722666075357</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.888279007814256</v>
+        <v>-1.892320301908195</v>
       </c>
       <c r="G32" t="n">
-        <v>1.289660876034469</v>
+        <v>1.254887645606694</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7443182801497745</v>
       </c>
       <c r="E33" t="n">
-        <v>5.452187496715685</v>
+        <v>5.482583379967123</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.819147300997169</v>
+        <v>-1.815132765228291</v>
       </c>
       <c r="G33" t="n">
-        <v>1.210413735334343</v>
+        <v>1.172782086182286</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7131527362037544</v>
       </c>
       <c r="E34" t="n">
-        <v>5.142006566614808</v>
+        <v>5.153731435049377</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.738546503852725</v>
+        <v>-1.733214514079318</v>
       </c>
       <c r="G34" t="n">
-        <v>1.09266293888896</v>
+        <v>1.048828080379857</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6807298097815829</v>
       </c>
       <c r="E35" t="n">
-        <v>4.734810967972562</v>
+        <v>4.72728086049626</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.687579764705008</v>
+        <v>-1.678967519082811</v>
       </c>
       <c r="G35" t="n">
-        <v>1.01958280510609</v>
+        <v>0.9778476881048027</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6476025755969949</v>
       </c>
       <c r="E36" t="n">
-        <v>4.268713999792124</v>
+        <v>4.247453723520715</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.604647058232357</v>
+        <v>-1.586128723270254</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9519330372917082</v>
+        <v>0.9044102519813979</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6150743632170597</v>
       </c>
       <c r="E37" t="n">
-        <v>3.893289977113333</v>
+        <v>3.854869744381505</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.569854939575127</v>
+        <v>-1.55244471407442</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8736303080643629</v>
+        <v>0.8291800080788315</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5844702302664457</v>
       </c>
       <c r="E38" t="n">
-        <v>3.544732886816023</v>
+        <v>3.491159572003433</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.478893948574281</v>
+        <v>-1.458705579324479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7782825257724525</v>
+        <v>0.7288740655548238</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5561976212173106</v>
       </c>
       <c r="E39" t="n">
-        <v>3.113867188627658</v>
+        <v>3.043694268161831</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.452798285562237</v>
+        <v>-1.431806379551011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7154335162780373</v>
+        <v>0.6716521744190587</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5297457788343919</v>
       </c>
       <c r="E40" t="n">
-        <v>2.700646244789074</v>
+        <v>2.612930881216351</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.447145195888086</v>
+        <v>-1.426501935112227</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6438109242014921</v>
+        <v>0.5980888167659497</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.50580330790095</v>
       </c>
       <c r="E41" t="n">
-        <v>2.352155263294859</v>
+        <v>2.263978712119595</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.412669455074237</v>
+        <v>-1.387968373003665</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5911505404792563</v>
+        <v>0.5446603117125192</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4841771242029791</v>
       </c>
       <c r="E42" t="n">
-        <v>1.977954253473319</v>
+        <v>1.882927571082154</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.381063151118519</v>
+        <v>-1.357359210161291</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5268014907622416</v>
+        <v>0.4817892659504058</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4641904861736676</v>
       </c>
       <c r="E43" t="n">
-        <v>1.739054353299665</v>
+        <v>1.647874573640958</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.359255116192898</v>
+        <v>-1.341833872558342</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4510297842819477</v>
+        <v>0.405776734544553</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4452968447810755</v>
       </c>
       <c r="E44" t="n">
-        <v>1.526533439579888</v>
+        <v>1.446143560997698</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.358041547450375</v>
+        <v>-1.342653149510979</v>
       </c>
       <c r="G44" t="n">
-        <v>0.384592011190967</v>
+        <v>0.3445946112995952</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4268340154653191</v>
       </c>
       <c r="E45" t="n">
-        <v>1.30487377084184</v>
+        <v>1.222157491998368</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.287024952735531</v>
+        <v>-1.271069907912466</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3253475054843304</v>
+        <v>0.2809491481298019</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.407606754128684</v>
       </c>
       <c r="E46" t="n">
-        <v>1.081278058584592</v>
+        <v>0.9979557823794191</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.226680994672665</v>
+        <v>-1.212133909953605</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2894299631553701</v>
+        <v>0.2520753413686621</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.386723133259936</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9544624860196385</v>
+        <v>0.8737011389248215</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.173579098586905</v>
+        <v>-1.155824949908194</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2132364195505677</v>
+        <v>0.1724520100985455</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3644830076420054</v>
       </c>
       <c r="E48" t="n">
-        <v>0.791529470697319</v>
+        <v>0.7237789656591735</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.099832367706164</v>
+        <v>-1.082101042304712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1563466464493969</v>
+        <v>0.1242602666616824</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3411054039874349</v>
       </c>
       <c r="E49" t="n">
-        <v>0.626331441859448</v>
+        <v>0.5553652157564851</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.041793560646444</v>
+        <v>-1.029262794421769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1093684717550566</v>
+        <v>0.07541530528947943</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3170274440819701</v>
       </c>
       <c r="E50" t="n">
-        <v>0.54786816268173</v>
+        <v>0.4813989092083232</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9864471132937086</v>
+        <v>-0.9792916223682757</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09611050869634087</v>
+        <v>0.07096555323356238</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.293897303247889</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4288817612261258</v>
+        <v>0.3636229284569993</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9678296151269641</v>
+        <v>-0.9629108053728994</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08832226208414506</v>
+        <v>0.07143146289346738</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2728860586550605</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2942637758768845</v>
+        <v>0.2450851224509658</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9708249735147992</v>
+        <v>-0.9751802844234383</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03012290507405214</v>
+        <v>0.008207836848182663</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.254835967503356</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2269901986324931</v>
+        <v>0.1731256902824622</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9347484552545875</v>
+        <v>-0.9249415291193236</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0380591094836502</v>
+        <v>0.02356081935734957</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2403879506969516</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1297063728213828</v>
+        <v>0.09587440582814577</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9056267404818429</v>
+        <v>-0.9035395911269981</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0001328904755896825</v>
+        <v>-0.01279744832557502</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2298593918646446</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08344909888459814</v>
+        <v>0.06658348399986128</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9200785970440651</v>
+        <v>-0.9242906722126658</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01352464515961594</v>
+        <v>-0.02609948391968713</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2228454814378925</v>
       </c>
       <c r="E56" t="n">
-        <v>0.007372032694771997</v>
+        <v>-0.005453075105586007</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.932525940255311</v>
+        <v>-0.9421250958665632</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0459415689628036</v>
+        <v>-0.05513698866944221</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2185024665661454</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08722179443803543</v>
+        <v>-0.09654470969349942</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9644793154272756</v>
+        <v>-0.980420981087809</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08327415448181331</v>
+        <v>-0.09122609908262438</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2163278444600653</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1243812378537021</v>
+        <v>-0.128176197955158</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9652356316150605</v>
+        <v>-0.9856191792359045</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1085828079332071</v>
+        <v>-0.1144476031791734</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2150309102263067</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1959298510315461</v>
+        <v>-0.1959156848594544</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9714388409721065</v>
+        <v>-0.9886649062356213</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1200589813466104</v>
+        <v>-0.1219619704642629</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2134720079430476</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2712860164638166</v>
+        <v>-0.2639007187466738</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.011930482867567</v>
+        <v>-1.03806156130984</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1278472279588062</v>
+        <v>-0.1276064030332472</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2108374831509296</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3448273378492273</v>
+        <v>-0.3309145828360505</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9927006912626363</v>
+        <v>-1.018053417249426</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1652097198411206</v>
+        <v>-0.1647485322385795</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2063854457019358</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4712871820927672</v>
+        <v>-0.4618619555944186</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.031646646380979</v>
+        <v>-1.067264338067332</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1871846007935995</v>
+        <v>-0.1881101240369243</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1994602723696974</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5261685067951583</v>
+        <v>-0.5218305100968536</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.064002183438436</v>
+        <v>-1.109055332747426</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.221809873423972</v>
+        <v>-0.2231981582889593</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1896134404260857</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6672462666182176</v>
+        <v>-0.6625352273881646</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.105995439575617</v>
+        <v>-1.154182460955116</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2720557118141326</v>
+        <v>-0.2770925730022948</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1774653044918945</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8310308262851607</v>
+        <v>-0.8297204553666778</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.173793952196962</v>
+        <v>-1.229032579239889</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3359073714888163</v>
+        <v>-0.3446526217267629</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1631637304361163</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9426358650714253</v>
+        <v>-0.9447238014358307</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.202474154606182</v>
+        <v>-1.258315630972567</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3683526276361874</v>
+        <v>-0.3751980367947241</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1473338195739851</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.034831674072931</v>
+        <v>-1.046015079929772</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.265228722953319</v>
+        <v>-1.328420081606617</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4322121574064776</v>
+        <v>-0.4479791069445466</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1312159957416919</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.142564625820796</v>
+        <v>-1.169401651838973</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.332365360534157</v>
+        <v>-1.404983519704925</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4486228807651585</v>
+        <v>-0.4555627310709733</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1157445668946498</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.31096027450359</v>
+        <v>-1.355341317647784</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.390423055823333</v>
+        <v>-1.466513501175691</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4832827818161997</v>
+        <v>-0.4931251233816929</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1018461473646769</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.370719484462891</v>
+        <v>-1.419501485070242</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.481765746461094</v>
+        <v>-1.566374783297931</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5237476653865978</v>
+        <v>-0.5390691675133387</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09101119480957834</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.432310065669827</v>
+        <v>-1.487824933068541</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.52369210678562</v>
+        <v>-1.617773590694444</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5832566063056129</v>
+        <v>-0.605620269981053</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08408383406856508</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.50822658190928</v>
+        <v>-1.568142406771151</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.569235563050895</v>
+        <v>-1.66063177033878</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5774925482834098</v>
+        <v>-0.6057682277784553</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.08163883194914433</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.567817371822603</v>
+        <v>-1.649043841567764</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.57375614596727</v>
+        <v>-1.662212085536566</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.60859359210119</v>
+        <v>-0.6419927038360693</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08399948747597555</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.619984300550311</v>
+        <v>-1.709832460032397</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.605656004489111</v>
+        <v>-1.691645456095328</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6135911028113198</v>
+        <v>-0.645419343463141</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.09094991623170211</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.622106078325824</v>
+        <v>-1.722630022498132</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.592974919438352</v>
+        <v>-1.67436744820081</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6338156745009123</v>
+        <v>-0.66677720892007</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1021982726559143</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.535100597376807</v>
+        <v>-1.633202913130994</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.662901505911695</v>
+        <v>-1.752945630774383</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6168005277996519</v>
+        <v>-0.6510291476114566</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1171661382477912</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.474212815707533</v>
+        <v>-1.563079574267488</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.670882569866251</v>
+        <v>-1.758985142142814</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5912966959772168</v>
+        <v>-0.6243684117348656</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1349686509554705</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.302120583118365</v>
+        <v>-1.390175934821289</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.613541053277266</v>
+        <v>-1.694308696448569</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5510380089117091</v>
+        <v>-0.5830834642022699</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1545096282056515</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.178141393009995</v>
+        <v>-1.262891304558188</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.583950280806374</v>
+        <v>-1.656076559001736</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5606773020105545</v>
+        <v>-0.6011925541928342</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1741765830382948</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9941117994048824</v>
+        <v>-1.072280737006917</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.545210522192922</v>
+        <v>-1.610394589053787</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5477530310055546</v>
+        <v>-0.5891780662399461</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1920566320186763</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8481333310476533</v>
+        <v>-0.9263211568791436</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.50590332968624</v>
+        <v>-1.562358673509932</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5133339548800724</v>
+        <v>-0.5517526135927796</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2066687107983926</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6305779171683967</v>
+        <v>-0.6932537845594688</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.495425871405302</v>
+        <v>-1.546694822224308</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.462617484772643</v>
+        <v>-0.4951792183349903</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2162030352965245</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4199348082603322</v>
+        <v>-0.4774227086275972</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.391993926906391</v>
+        <v>-1.424414785757382</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3777023012167134</v>
+        <v>-0.4075645919860301</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2196415066332412</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2246273676511003</v>
+        <v>-0.274685897765826</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.35497378418296</v>
+        <v>-1.375792548090844</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3546649573573566</v>
+        <v>-0.3836347792848958</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2167338966220145</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.02999045918754243</v>
+        <v>-0.07675141924314326</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.228020484944892</v>
+        <v>-1.241795513284955</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3297923072025631</v>
+        <v>-0.3646961812174059</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2080045296484827</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2373582625845007</v>
+        <v>0.1991127459751366</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.117811601119221</v>
+        <v>-1.122903552976629</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2662475812565331</v>
+        <v>-0.3022296583694668</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.194288681641957</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4736248287682192</v>
+        <v>0.4427284074362079</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9826293299149939</v>
+        <v>-0.9778671350634985</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2003874731830697</v>
+        <v>-0.2316002723584623</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1769412727687541</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6443460907027343</v>
+        <v>0.6121180491941027</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8318194098649323</v>
+        <v>-0.8229624042693733</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1772399479852218</v>
+        <v>-0.2098457540829655</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1573767698500182</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8304156130890525</v>
+        <v>0.8053950051368568</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7173362771153694</v>
+        <v>-0.7116304578006544</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1170557528631687</v>
+        <v>-0.1426099532974854</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1360755400737786</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9699193537908112</v>
+        <v>0.9494067366020207</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5262440597129807</v>
+        <v>-0.5071008391597217</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09927248483071351</v>
+        <v>-0.1263944083098457</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1135293149735025</v>
       </c>
       <c r="E91" t="n">
-        <v>1.092285174299848</v>
+        <v>1.076776363897672</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3287046599897444</v>
+        <v>-0.3086138799254624</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1201644406277375</v>
+        <v>-0.1489910268152383</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08897591482524357</v>
       </c>
       <c r="E92" t="n">
-        <v>1.155363990585973</v>
+        <v>1.144434001807661</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1909496545317508</v>
+        <v>-0.1725934435391421</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0818543892344001</v>
+        <v>-0.1096421228018424</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06184298598575746</v>
       </c>
       <c r="E93" t="n">
-        <v>1.185497012644153</v>
+        <v>1.17157638753537</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08984411029412238</v>
+        <v>-0.07275813273240342</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07868903678146441</v>
+        <v>-0.1043691587454851</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03264246046215711</v>
       </c>
       <c r="E94" t="n">
-        <v>1.174223887697398</v>
+        <v>1.168636119816781</v>
       </c>
       <c r="F94" t="n">
-        <v>0.06422560335615284</v>
+        <v>0.08725822515814581</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04064814265786939</v>
+        <v>-0.06222951883002312</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.002126116548408781</v>
       </c>
       <c r="E95" t="n">
-        <v>1.188503389165838</v>
+        <v>1.189553259919745</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1466742989490042</v>
+        <v>0.1714761182433391</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0747775992650322</v>
+        <v>-0.09546650659540844</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02740001292327423</v>
       </c>
       <c r="E96" t="n">
-        <v>1.108247302208958</v>
+        <v>1.108162305176408</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2300170374027543</v>
+        <v>0.2603877363482511</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09975728272007411</v>
+        <v>-0.1155667307744182</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05396165831701433</v>
       </c>
       <c r="E97" t="n">
-        <v>1.059718718680137</v>
+        <v>1.062950179936167</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2789910683429039</v>
+        <v>0.3118660317103901</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06612049409787842</v>
+        <v>-0.08106737967374975</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07655048387098637</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9393912529331844</v>
+        <v>0.9369719855437452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.259026209808326</v>
+        <v>0.2887216545507847</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1226151883996027</v>
+        <v>-0.137321249049915</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09564478023227091</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9087482486797026</v>
+        <v>0.9130909674353712</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2359337752797236</v>
+        <v>0.2578661577159274</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1086331765450887</v>
+        <v>-0.1215952240089999</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1136335542322355</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8503017706675654</v>
+        <v>0.8515420977351503</v>
       </c>
       <c r="F100" t="n">
-        <v>0.229292988606956</v>
+        <v>0.2527254112657593</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.109582310075233</v>
+        <v>-0.1206114620581869</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1313890398754919</v>
       </c>
       <c r="E101" t="n">
-        <v>0.792832758529756</v>
+        <v>0.7963900417438956</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2026527149789418</v>
+        <v>0.2194648132135545</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09539724975407121</v>
+        <v>-0.1042133308524764</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1537427705521489</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7820160991281777</v>
+        <v>0.7893321400039833</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1708197522697567</v>
+        <v>0.1816552999007907</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07833960453653566</v>
+        <v>-0.08534713766456632</v>
       </c>
     </row>
   </sheetData>
